--- a/biology/Médecine/Institut_suisse_de_recherche_sur_le_climat_et_la_médecine_de_haute_montagne/Institut_suisse_de_recherche_sur_le_climat_et_la_médecine_de_haute_montagne.xlsx
+++ b/biology/Médecine/Institut_suisse_de_recherche_sur_le_climat_et_la_médecine_de_haute_montagne/Institut_suisse_de_recherche_sur_le_climat_et_la_médecine_de_haute_montagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_suisse_de_recherche_sur_le_climat_et_la_m%C3%A9decine_de_haute_montagne</t>
+          <t>Institut_suisse_de_recherche_sur_le_climat_et_la_médecine_de_haute_montagne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut suisse de recherche sur le climat et la médecine de haute montagne, appelé en allemand Schweizerische Forschungsinstitut für Hochgebirgsklima und Medizin est un institut de recherche privé situé à Davos, en Suisse. Il est composé de deux départements, l'Institut suisse de recherche sur les allergies et l'asthme et l'observatoire physico-météorologique de Davos.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_suisse_de_recherche_sur_le_climat_et_la_m%C3%A9decine_de_haute_montagne</t>
+          <t>Institut_suisse_de_recherche_sur_le_climat_et_la_médecine_de_haute_montagne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'institut a été créé le 26 mars 1922 sous le nom d'institut sur la physiologie de haute montagne et de recherche sur la tuberculose à la villa Silvana de Davos. Son premier président en était le docteur Florian Buol (1854-1924). Par la suite, le docteur berlinois Adolf Loewy a rejoint d'institut pour mener différentes études dans le domaine de physiologie d'altitude. En 1926, le Physikalisch-Meteorologisches Observatorium Davos (PMOD) a été rattaché à l'institut.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Institut_suisse_de_recherche_sur_le_climat_et_la_m%C3%A9decine_de_haute_montagne</t>
+          <t>Institut_suisse_de_recherche_sur_le_climat_et_la_médecine_de_haute_montagne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en allemand intitulé « Schweizerisches Forschungsinstitut für Hochgebirgsklima und Medizin » (voir la liste des auteurs).</t>
         </is>
